--- a/biology/Botanique/Limonium_carolinianum/Limonium_carolinianum.xlsx
+++ b/biology/Botanique/Limonium_carolinianum/Limonium_carolinianum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Limonium carolinianum, en français Limonium de Caroline, Lavande de mer, Limonie de Nash ou Limonium de Nash, est une espèce de plantes à fleurs herbacées vivaces de la famille des Plumbaginaceae.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Du centre de sa rosette de feuilles basilaires émerge une tige abondamment ramifiée au sommet. Celle-ci porte une cyme de fleurs mauves dont la couleur rappelle celle de la lavande, d'où le nom vernaculaire lavande de mer qui est attribué à cette espèce.
 </t>
@@ -542,7 +556,9 @@
           <t>Habitat et répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Elle se retrouve en bordure de mer, sur les rivages salés et saumâtres du Saint-Laurent et de l'Atlantique, dans le nord-est de l'Amérique du Nord et en certains autres endroits tels les Bermudes. Elle croît principalement dans le substrat vaseux des marais salés.
 </t>
@@ -573,9 +589,11 @@
           <t>Espèces associées</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Différentes espèces de lépidoptères s'abreuvent du nectar de la Limonie de Nash. C'est notamment le cas du Cuivré des marais salés (Lycaena dospassosi)[1] et du Satyre fauve des Maritimes (Coenonympha nipisiquit)[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Différentes espèces de lépidoptères s'abreuvent du nectar de la Limonie de Nash. C'est notamment le cas du Cuivré des marais salés (Lycaena dospassosi) et du Satyre fauve des Maritimes (Coenonympha nipisiquit).
 </t>
         </is>
       </c>
@@ -604,9 +622,11 @@
           <t>Liste des taxons de rang inférieur</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Liste des variétés selon GBIF       (24 juin 2021)[3] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Liste des variétés selon GBIF       (24 juin 2021) :
 Limonium carolinianum var. trichogonum (Blake) Blake</t>
         </is>
       </c>
@@ -635,11 +655,13 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce a été initialement classée dans le genre Statice sous le basionyme Statice caroliniana, par le botaniste américain Thomas Walter en 1788. Elle est déplacée dans le genre Limonium par son compatriote Nathaniel Lord Britton en 1894, sous le nom correct Limonium carolinianum[3],[4],[5].
-Ce taxon porte en français les noms vernaculaires ou normalisés suivants[3] : « Limonium de Caroline », « Lavande de mer », « Limonie de Nash », « Limonium de Nash ».
-Limonium carolinianum a pour synonymes[3] :
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce a été initialement classée dans le genre Statice sous le basionyme Statice caroliniana, par le botaniste américain Thomas Walter en 1788. Elle est déplacée dans le genre Limonium par son compatriote Nathaniel Lord Britton en 1894, sous le nom correct Limonium carolinianum.
+Ce taxon porte en français les noms vernaculaires ou normalisés suivants : « Limonium de Caroline », « Lavande de mer », « Limonie de Nash », « Limonium de Nash ».
+Limonium carolinianum a pour synonymes :
 Limonium angustatum (Gray) Small
 Limonium carolinianum var. angustatum (A.Gray) S.F.Blake
 Limonium carolinianum var. angustifolium S.F.Blake
